--- a/Cisco/Commandos.xlsx
+++ b/Cisco/Commandos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11800460\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11800460\Desktop\School-Y2-\Cisco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{256DF327-FE53-420C-A1EB-A74388F5ADAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7ED493-2E22-46E1-83AF-6656414D87D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="2835" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CCNA2 + 3 + 4" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="912">
   <si>
     <t>Algemene commando's</t>
   </si>
@@ -430,9 +430,6 @@
   </si>
   <si>
     <t>clock rate 64000</t>
-  </si>
-  <si>
-    <t>//aan de DTE kant</t>
   </si>
   <si>
     <t>description connectie met het administratie netwerk</t>
@@ -3056,23 +3053,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3617,8 +3614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
@@ -3643,7 +3640,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E1" s="1"/>
       <c r="K1" s="1"/>
@@ -3659,7 +3656,7 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="29"/>
@@ -3814,7 +3811,7 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="35" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="29"/>
@@ -4225,7 +4222,7 @@
         <v>67</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -4235,7 +4232,7 @@
         <v>64</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -4253,7 +4250,7 @@
         <v>64</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -4266,7 +4263,7 @@
         <v>64</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -4308,7 +4305,7 @@
       <c r="L48" s="1"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="32" t="s">
         <v>71</v>
       </c>
       <c r="B49" s="29"/>
@@ -4462,7 +4459,7 @@
         <v>52</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -4639,7 +4636,7 @@
       <c r="L70" s="1"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="31" t="s">
+      <c r="A71" s="32" t="s">
         <v>109</v>
       </c>
       <c r="B71" s="29"/>
@@ -4689,7 +4686,7 @@
         <v>125</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
@@ -4727,15 +4724,13 @@
       <c r="F76" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H76" s="8" t="s">
-        <v>133</v>
-      </c>
+      <c r="H76" s="8"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -4760,13 +4755,13 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
@@ -4776,12 +4771,12 @@
         <v>125</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
@@ -4791,19 +4786,19 @@
         <v>125</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -4817,7 +4812,7 @@
         <v>125</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -4836,23 +4831,23 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -4860,17 +4855,17 @@
         <v>125</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -4878,7 +4873,7 @@
         <v>125</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
@@ -4893,8 +4888,8 @@
       <c r="L88" s="1"/>
     </row>
     <row r="89" spans="1:12">
-      <c r="A89" s="31" t="s">
-        <v>161</v>
+      <c r="A89" s="32" t="s">
+        <v>160</v>
       </c>
       <c r="B89" s="29"/>
       <c r="C89" s="29"/>
@@ -4919,13 +4914,13 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
@@ -4940,7 +4935,7 @@
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
@@ -4950,7 +4945,7 @@
         <v>22</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -4958,7 +4953,7 @@
         <v>125</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
@@ -4976,10 +4971,10 @@
         <v>129</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I94" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
@@ -5002,10 +4997,10 @@
         <v>129</v>
       </c>
       <c r="F96" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J96" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
@@ -5019,7 +5014,7 @@
         <v>129</v>
       </c>
       <c r="F97" s="15" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G97" s="26"/>
       <c r="H97" s="26"/>
@@ -5037,8 +5032,8 @@
       <c r="L98" s="1"/>
     </row>
     <row r="99" spans="1:12">
-      <c r="A99" s="31" t="s">
-        <v>201</v>
+      <c r="A99" s="32" t="s">
+        <v>200</v>
       </c>
       <c r="B99" s="29"/>
       <c r="C99" s="29"/>
@@ -5063,13 +5058,13 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
@@ -5079,7 +5074,7 @@
         <v>125</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -5087,7 +5082,7 @@
         <v>125</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
@@ -5097,11 +5092,11 @@
         <v>125</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E103" s="1"/>
       <c r="K103" s="1"/>
@@ -5111,7 +5106,7 @@
       <c r="A104" s="1"/>
       <c r="B104" s="13"/>
       <c r="C104" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="5"/>
@@ -5128,8 +5123,8 @@
       <c r="L105" s="1"/>
     </row>
     <row r="106" spans="1:12">
-      <c r="A106" s="31" t="s">
-        <v>900</v>
+      <c r="A106" s="32" t="s">
+        <v>899</v>
       </c>
       <c r="B106" s="29"/>
       <c r="C106" s="29"/>
@@ -5154,13 +5149,13 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
@@ -5170,7 +5165,7 @@
         <v>125</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -5178,17 +5173,17 @@
         <v>125</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B110" s="12" t="s">
         <v>243</v>
-      </c>
-      <c r="B110" s="12" t="s">
-        <v>244</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -5198,10 +5193,10 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -5211,27 +5206,27 @@
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -5239,17 +5234,17 @@
         <v>125</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -5267,8 +5262,8 @@
       <c r="L115" s="1"/>
     </row>
     <row r="116" spans="1:12">
-      <c r="A116" s="31" t="s">
-        <v>897</v>
+      <c r="A116" s="32" t="s">
+        <v>896</v>
       </c>
       <c r="B116" s="29"/>
       <c r="C116" s="29"/>
@@ -5293,13 +5288,13 @@
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
@@ -5309,7 +5304,7 @@
         <v>125</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -5324,10 +5319,10 @@
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -5335,17 +5330,17 @@
         <v>129</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -5355,78 +5350,78 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E122" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="F122" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F123" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F125" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
@@ -5436,13 +5431,13 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
@@ -5454,31 +5449,31 @@
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C129" s="15"/>
       <c r="D129" s="1"/>
@@ -5488,25 +5483,25 @@
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="B130" s="15" t="s">
         <v>344</v>
-      </c>
-      <c r="B130" s="15" t="s">
-        <v>345</v>
       </c>
       <c r="C130" s="15"/>
       <c r="D130" s="1"/>
       <c r="E130" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C131" s="15"/>
       <c r="D131" s="1"/>
@@ -5514,19 +5509,19 @@
         <v>125</v>
       </c>
       <c r="F131" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="K131" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="K131" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="L131" s="1"/>
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="B132" s="15" t="s">
         <v>356</v>
-      </c>
-      <c r="B132" s="15" t="s">
-        <v>357</v>
       </c>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -5534,7 +5529,7 @@
         <v>125</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
@@ -5545,19 +5540,19 @@
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L133" s="1"/>
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -5568,10 +5563,10 @@
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -5581,10 +5576,10 @@
     </row>
     <row r="136" spans="1:12">
       <c r="A136" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -5594,10 +5589,10 @@
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B137" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -5607,10 +5602,10 @@
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B138" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -5620,10 +5615,10 @@
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -5641,8 +5636,8 @@
       <c r="L140" s="1"/>
     </row>
     <row r="141" spans="1:12">
-      <c r="A141" s="31" t="s">
-        <v>385</v>
+      <c r="A141" s="32" t="s">
+        <v>384</v>
       </c>
       <c r="B141" s="29"/>
       <c r="C141" s="29"/>
@@ -5667,16 +5662,16 @@
     </row>
     <row r="143" spans="1:12">
       <c r="A143" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
@@ -5686,7 +5681,7 @@
         <v>125</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -5694,7 +5689,7 @@
         <v>125</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
@@ -5704,7 +5699,7 @@
         <v>125</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -5712,10 +5707,10 @@
         <v>125</v>
       </c>
       <c r="F145" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="J145" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="J145" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
@@ -5729,14 +5724,14 @@
         <v>125</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
     </row>
     <row r="147" spans="1:12">
       <c r="A147" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -5745,10 +5740,10 @@
         <v>125</v>
       </c>
       <c r="F147" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="J147" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="J147" s="1" t="s">
-        <v>430</v>
       </c>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
@@ -5760,7 +5755,7 @@
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
       <c r="F148" s="18" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G148" s="18"/>
       <c r="H148" s="18"/>
@@ -5781,7 +5776,7 @@
         <v>3</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
@@ -5791,12 +5786,12 @@
         <v>125</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
@@ -5825,16 +5820,16 @@
     </row>
     <row r="153" spans="1:12">
       <c r="A153" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K153" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L153" s="1"/>
     </row>
@@ -5843,7 +5838,7 @@
         <v>125</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -5851,7 +5846,7 @@
         <v>125</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
@@ -5865,14 +5860,14 @@
         <v>125</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
     </row>
     <row r="156" spans="1:12">
       <c r="A156" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -5881,7 +5876,7 @@
         <v>125</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
@@ -5899,7 +5894,7 @@
         <v>125</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
@@ -5909,12 +5904,12 @@
         <v>125</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="19" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
@@ -5926,10 +5921,10 @@
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
@@ -5945,13 +5940,13 @@
     </row>
     <row r="161" spans="1:12">
       <c r="A161" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
@@ -5961,7 +5956,7 @@
         <v>125</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -5969,22 +5964,22 @@
         <v>125</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
     </row>
     <row r="163" spans="1:12">
       <c r="A163" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>34</v>
@@ -5994,25 +5989,25 @@
     </row>
     <row r="164" spans="1:12">
       <c r="A164" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
     </row>
     <row r="165" spans="1:12">
       <c r="A165" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>58</v>
@@ -6020,10 +6015,10 @@
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
@@ -6033,7 +6028,7 @@
         <v>125</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -6041,7 +6036,7 @@
         <v>125</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
@@ -6051,7 +6046,7 @@
         <v>129</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -6059,7 +6054,7 @@
         <v>125</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
@@ -6074,8 +6069,8 @@
       <c r="L168" s="1"/>
     </row>
     <row r="169" spans="1:12">
-      <c r="A169" s="31" t="s">
-        <v>554</v>
+      <c r="A169" s="32" t="s">
+        <v>553</v>
       </c>
       <c r="B169" s="29"/>
       <c r="C169" s="29"/>
@@ -6100,13 +6095,13 @@
     </row>
     <row r="171" spans="1:12">
       <c r="A171" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
@@ -6116,7 +6111,7 @@
         <v>125</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -6142,7 +6137,7 @@
         <v>129</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
@@ -6152,7 +6147,7 @@
         <v>125</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -6170,7 +6165,7 @@
         <v>46</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -6181,12 +6176,12 @@
     <row r="176" spans="1:12">
       <c r="A176" s="5"/>
       <c r="B176" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="K176" s="1"/>
       <c r="L176" s="1"/>
@@ -6200,14 +6195,14 @@
         <v>125</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="K177" s="1"/>
       <c r="L177" s="1"/>
     </row>
     <row r="178" spans="1:15">
       <c r="A178" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -6216,10 +6211,10 @@
         <v>129</v>
       </c>
       <c r="F178" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="I178" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="I178" s="1" t="s">
-        <v>647</v>
       </c>
       <c r="K178" s="1"/>
       <c r="L178" s="1"/>
@@ -6229,7 +6224,7 @@
         <v>125</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -6248,13 +6243,13 @@
     </row>
     <row r="181" spans="1:15">
       <c r="A181" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="K181" s="1"/>
       <c r="L181" s="1"/>
@@ -6270,7 +6265,7 @@
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
       <c r="F182" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="K182" s="1"/>
       <c r="L182" s="1"/>
@@ -6280,7 +6275,7 @@
         <v>129</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -6288,7 +6283,7 @@
         <v>125</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="K183" s="1"/>
       <c r="L183" s="1"/>
@@ -6299,13 +6294,13 @@
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="F184" s="13" t="s">
         <v>653</v>
       </c>
-      <c r="F184" s="13" t="s">
+      <c r="J184" s="1" t="s">
         <v>654</v>
-      </c>
-      <c r="J184" s="1" t="s">
-        <v>655</v>
       </c>
       <c r="K184" s="1"/>
       <c r="L184" s="1"/>
@@ -6316,10 +6311,10 @@
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
@@ -6330,10 +6325,10 @@
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K186" s="1"/>
       <c r="L186" s="1"/>
@@ -6344,10 +6339,10 @@
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K187" s="1"/>
       <c r="L187" s="1"/>
@@ -6362,8 +6357,8 @@
       <c r="L188" s="1"/>
     </row>
     <row r="189" spans="1:15">
-      <c r="A189" s="31" t="s">
-        <v>659</v>
+      <c r="A189" s="32" t="s">
+        <v>658</v>
       </c>
       <c r="B189" s="29"/>
       <c r="C189" s="29"/>
@@ -6386,18 +6381,18 @@
       <c r="K190" s="1"/>
       <c r="L190" s="1"/>
       <c r="N190" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="191" spans="1:15">
       <c r="A191" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K191" s="1"/>
       <c r="L191" s="1"/>
@@ -6405,7 +6400,7 @@
         <v>129</v>
       </c>
       <c r="O191" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="192" spans="1:15">
@@ -6413,7 +6408,7 @@
         <v>125</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -6429,7 +6424,7 @@
         <v>129</v>
       </c>
       <c r="O192" s="15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="193" spans="1:15">
@@ -6437,7 +6432,7 @@
         <v>125</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -6445,10 +6440,10 @@
         <v>129</v>
       </c>
       <c r="F193" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="H193" s="1" t="s">
         <v>663</v>
-      </c>
-      <c r="H193" s="1" t="s">
-        <v>664</v>
       </c>
       <c r="K193" s="1"/>
       <c r="L193" s="1"/>
@@ -6456,7 +6451,7 @@
         <v>129</v>
       </c>
       <c r="O193" s="15" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="194" spans="1:15">
@@ -6464,7 +6459,7 @@
         <v>125</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -6488,7 +6483,7 @@
         <v>125</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -6496,10 +6491,10 @@
         <v>129</v>
       </c>
       <c r="F195" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="H195" s="1" t="s">
         <v>667</v>
-      </c>
-      <c r="H195" s="1" t="s">
-        <v>668</v>
       </c>
       <c r="K195" s="1"/>
       <c r="L195" s="1"/>
@@ -6507,7 +6502,7 @@
         <v>129</v>
       </c>
       <c r="O195" s="15" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="196" spans="1:15">
@@ -6519,17 +6514,17 @@
         <v>129</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="K196" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="L196" s="1"/>
       <c r="N196" s="15"/>
     </row>
     <row r="197" spans="1:15">
       <c r="A197" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -6538,10 +6533,10 @@
         <v>129</v>
       </c>
       <c r="F197" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="K197" s="1" t="s">
         <v>671</v>
-      </c>
-      <c r="K197" s="1" t="s">
-        <v>672</v>
       </c>
       <c r="L197" s="1"/>
       <c r="N197" s="15"/>
@@ -6549,7 +6544,7 @@
     <row r="198" spans="1:15">
       <c r="A198" s="1"/>
       <c r="B198" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -6563,12 +6558,12 @@
         <v>125</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K199" s="1"/>
       <c r="L199" s="1"/>
@@ -6579,7 +6574,7 @@
         <v>125</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -6587,7 +6582,7 @@
         <v>129</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K200" s="1"/>
       <c r="L200" s="1"/>
@@ -6595,7 +6590,7 @@
     <row r="201" spans="1:15">
       <c r="A201" s="1"/>
       <c r="B201" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -6603,10 +6598,10 @@
         <v>129</v>
       </c>
       <c r="F201" s="15" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="K201" s="1"/>
       <c r="L201" s="1"/>
@@ -6621,7 +6616,7 @@
       </c>
       <c r="F202" s="1"/>
       <c r="I202" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K202" s="1"/>
       <c r="L202" s="1"/>
@@ -6636,8 +6631,8 @@
       <c r="L203" s="1"/>
     </row>
     <row r="204" spans="1:15">
-      <c r="A204" s="33" t="s">
-        <v>681</v>
+      <c r="A204" s="36" t="s">
+        <v>680</v>
       </c>
       <c r="B204" s="29"/>
       <c r="C204" s="29"/>
@@ -6675,8 +6670,8 @@
       <c r="L206" s="1"/>
     </row>
     <row r="207" spans="1:15">
-      <c r="A207" s="32" t="s">
-        <v>682</v>
+      <c r="A207" s="33" t="s">
+        <v>681</v>
       </c>
       <c r="B207" s="29"/>
       <c r="C207" s="29"/>
@@ -6692,28 +6687,28 @@
     </row>
     <row r="208" spans="1:15">
       <c r="A208" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K208" s="1"/>
       <c r="L208" s="1"/>
     </row>
     <row r="209" spans="1:12">
       <c r="A209" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F209" s="12" t="s">
         <v>89</v>
@@ -6724,13 +6719,13 @@
     <row r="210" spans="1:12">
       <c r="A210" s="1"/>
       <c r="B210" s="12" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
       <c r="F210" s="12" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K210" s="1"/>
       <c r="L210" s="1"/>
@@ -6742,7 +6737,7 @@
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
       <c r="F211" s="12" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K211" s="1"/>
       <c r="L211" s="1"/>
@@ -6750,13 +6745,13 @@
     <row r="212" spans="1:12">
       <c r="A212" s="1"/>
       <c r="B212" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
       <c r="F212" s="12" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K212" s="1"/>
       <c r="L212" s="1"/>
@@ -6764,7 +6759,7 @@
     <row r="213" spans="1:12">
       <c r="A213" s="1"/>
       <c r="B213" s="12" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -6775,13 +6770,13 @@
     <row r="214" spans="1:12">
       <c r="A214" s="1"/>
       <c r="B214" s="12" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
       <c r="F214" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="K214" s="1"/>
       <c r="L214" s="1"/>
@@ -6796,8 +6791,8 @@
       <c r="L215" s="1"/>
     </row>
     <row r="216" spans="1:12">
-      <c r="A216" s="32" t="s">
-        <v>695</v>
+      <c r="A216" s="33" t="s">
+        <v>694</v>
       </c>
       <c r="B216" s="29"/>
       <c r="C216" s="29"/>
@@ -6813,42 +6808,42 @@
     </row>
     <row r="217" spans="1:12">
       <c r="A217" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="K217" s="1"/>
       <c r="L217" s="1"/>
     </row>
     <row r="218" spans="1:12">
       <c r="A218" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B218" s="1"/>
       <c r="C218" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D218" s="1"/>
       <c r="E218" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F218" s="12" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="K218" s="1"/>
       <c r="L218" s="1"/>
     </row>
     <row r="219" spans="1:12">
       <c r="A219" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B219" s="1"/>
       <c r="C219" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -6857,29 +6852,29 @@
     </row>
     <row r="220" spans="1:12">
       <c r="A220" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K220" s="1"/>
       <c r="L220" s="1"/>
     </row>
     <row r="221" spans="1:12">
       <c r="A221" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F221" s="12" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K221" s="1"/>
       <c r="L221" s="1"/>
@@ -6890,7 +6885,7 @@
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F222" s="12" t="s">
         <v>92</v>
@@ -6904,10 +6899,10 @@
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F223" s="12" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K223" s="1"/>
       <c r="L223" s="1"/>
@@ -6922,8 +6917,8 @@
       <c r="L224" s="1"/>
     </row>
     <row r="225" spans="1:12">
-      <c r="A225" s="32" t="s">
-        <v>708</v>
+      <c r="A225" s="33" t="s">
+        <v>707</v>
       </c>
       <c r="B225" s="29"/>
       <c r="C225" s="29"/>
@@ -6939,7 +6934,7 @@
     </row>
     <row r="226" spans="1:12">
       <c r="A226" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -6976,8 +6971,8 @@
       <c r="L229" s="1"/>
     </row>
     <row r="230" spans="1:12">
-      <c r="A230" s="32" t="s">
-        <v>709</v>
+      <c r="A230" s="33" t="s">
+        <v>708</v>
       </c>
       <c r="B230" s="29"/>
       <c r="C230" s="29"/>
@@ -6993,20 +6988,20 @@
     </row>
     <row r="231" spans="1:12">
       <c r="A231" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K231" s="1"/>
       <c r="L231" s="1"/>
     </row>
     <row r="232" spans="1:12">
       <c r="A232" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -7015,7 +7010,7 @@
         <v>125</v>
       </c>
       <c r="F232" s="12" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K232" s="1"/>
       <c r="L232" s="1"/>
@@ -7029,14 +7024,14 @@
         <v>129</v>
       </c>
       <c r="F233" s="12" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="K233" s="1"/>
       <c r="L233" s="1"/>
     </row>
     <row r="234" spans="1:12">
       <c r="A234" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -7047,20 +7042,20 @@
     </row>
     <row r="235" spans="1:12">
       <c r="A235" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K235" s="1"/>
       <c r="L235" s="1"/>
     </row>
     <row r="236" spans="1:12">
       <c r="A236" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -7069,7 +7064,7 @@
         <v>125</v>
       </c>
       <c r="F236" s="12" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K236" s="1"/>
       <c r="L236" s="1"/>
@@ -7080,17 +7075,17 @@
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F237" s="12" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K237" s="1"/>
       <c r="L237" s="1"/>
     </row>
     <row r="238" spans="1:12">
       <c r="A238" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -7099,25 +7094,25 @@
         <v>125</v>
       </c>
       <c r="F238" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K238" s="1"/>
       <c r="L238" s="1"/>
     </row>
     <row r="239" spans="1:12">
       <c r="A239" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B239" s="1" t="s">
         <v>722</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>723</v>
       </c>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="F239" s="12" t="s">
         <v>724</v>
-      </c>
-      <c r="F239" s="12" t="s">
-        <v>725</v>
       </c>
       <c r="K239" s="1"/>
       <c r="L239" s="1"/>
@@ -7133,23 +7128,23 @@
     </row>
     <row r="241" spans="1:12">
       <c r="A241" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K241" s="1"/>
       <c r="L241" s="1"/>
     </row>
     <row r="242" spans="1:12">
       <c r="A242" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B242" s="1" t="s">
         <v>728</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>729</v>
       </c>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
@@ -7158,17 +7153,17 @@
         <v>R1#</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="K242" s="1"/>
       <c r="L242" s="1"/>
     </row>
     <row r="243" spans="1:12">
       <c r="A243" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B243" s="12" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
@@ -7178,10 +7173,10 @@
     </row>
     <row r="244" spans="1:12">
       <c r="A244" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B244" s="12" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
@@ -7199,8 +7194,8 @@
       <c r="L245" s="1"/>
     </row>
     <row r="246" spans="1:12">
-      <c r="A246" s="32" t="s">
-        <v>733</v>
+      <c r="A246" s="33" t="s">
+        <v>732</v>
       </c>
       <c r="B246" s="29"/>
       <c r="C246" s="29"/>
@@ -7225,13 +7220,13 @@
     </row>
     <row r="248" spans="1:12">
       <c r="A248" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K248" s="1"/>
       <c r="L248" s="1"/>
@@ -7241,37 +7236,37 @@
         <v>125</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K249" s="1"/>
       <c r="L249" s="1"/>
     </row>
     <row r="250" spans="1:12">
       <c r="A250" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B250" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K250" s="1"/>
       <c r="L250" s="1"/>
     </row>
     <row r="251" spans="1:12">
       <c r="A251" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
@@ -7281,25 +7276,25 @@
     </row>
     <row r="252" spans="1:12">
       <c r="A252" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="K252" s="1"/>
       <c r="L252" s="1"/>
     </row>
     <row r="253" spans="1:12">
       <c r="A253" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C253" s="1"/>
       <c r="D253" s="15"/>
@@ -7307,14 +7302,14 @@
         <v>125</v>
       </c>
       <c r="F253" s="12" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K253" s="1"/>
       <c r="L253" s="1"/>
     </row>
     <row r="254" spans="1:12">
       <c r="A254" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>35</v>
@@ -7322,10 +7317,10 @@
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F254" s="12" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K254" s="1"/>
       <c r="L254" s="1"/>
@@ -7335,7 +7330,7 @@
         <v>125</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
@@ -7345,10 +7340,10 @@
     </row>
     <row r="256" spans="1:12">
       <c r="A256" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
@@ -7361,7 +7356,7 @@
         <v>125</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
@@ -7371,10 +7366,10 @@
     </row>
     <row r="258" spans="1:12">
       <c r="A258" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
@@ -7392,8 +7387,8 @@
       <c r="L259" s="1"/>
     </row>
     <row r="260" spans="1:12">
-      <c r="A260" s="32" t="s">
-        <v>743</v>
+      <c r="A260" s="33" t="s">
+        <v>742</v>
       </c>
       <c r="B260" s="29"/>
       <c r="C260" s="29"/>
@@ -7418,23 +7413,23 @@
     </row>
     <row r="262" spans="1:12">
       <c r="A262" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K262" s="1"/>
       <c r="L262" s="1"/>
     </row>
     <row r="263" spans="1:12">
       <c r="A263" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B263" s="1" t="s">
         <v>745</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>746</v>
       </c>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
@@ -7442,37 +7437,37 @@
         <v>125</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="K263" s="1"/>
       <c r="L263" s="1"/>
     </row>
     <row r="264" spans="1:12">
       <c r="A264" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C264" s="1"/>
       <c r="D264" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="K264" s="1"/>
       <c r="L264" s="1"/>
     </row>
     <row r="265" spans="1:12">
       <c r="A265" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
@@ -7480,17 +7475,17 @@
         <v>125</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K265" s="1"/>
       <c r="L265" s="1"/>
     </row>
     <row r="266" spans="1:12">
       <c r="A266" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
@@ -7498,17 +7493,17 @@
         <v>125</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="K266" s="1"/>
       <c r="L266" s="1"/>
     </row>
     <row r="267" spans="1:12">
       <c r="A267" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
@@ -7516,23 +7511,23 @@
         <v>125</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="K267" s="1"/>
       <c r="L267" s="1"/>
     </row>
     <row r="268" spans="1:12">
       <c r="A268" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
       <c r="F268" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K268" s="1"/>
       <c r="L268" s="1"/>
@@ -7548,13 +7543,13 @@
     </row>
     <row r="270" spans="1:12">
       <c r="A270" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K270" s="1"/>
       <c r="L270" s="1"/>
@@ -7564,48 +7559,48 @@
         <v>125</v>
       </c>
       <c r="B271" s="21" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C271" s="12" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D271" s="1"/>
       <c r="E271" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="K271" s="1"/>
       <c r="L271" s="1"/>
     </row>
     <row r="272" spans="1:12">
       <c r="A272" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B272" s="12" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F272" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="H272" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="H272" s="1" t="s">
+      <c r="I272" s="1" t="s">
         <v>764</v>
-      </c>
-      <c r="I272" s="1" t="s">
-        <v>765</v>
       </c>
       <c r="K272" s="1"/>
       <c r="L272" s="1"/>
     </row>
     <row r="273" spans="1:12">
       <c r="A273" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -7625,23 +7620,23 @@
     </row>
     <row r="275" spans="1:12">
       <c r="A275" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K275" s="1"/>
       <c r="L275" s="1"/>
     </row>
     <row r="276" spans="1:12">
       <c r="A276" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
@@ -7649,43 +7644,43 @@
         <v>125</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="K276" s="1"/>
       <c r="L276" s="1"/>
     </row>
     <row r="277" spans="1:12">
       <c r="A277" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B277" s="1" t="s">
         <v>745</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>746</v>
       </c>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F277" s="12" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="K277" s="1"/>
       <c r="L277" s="1"/>
     </row>
     <row r="278" spans="1:12">
       <c r="A278" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F278" s="12" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="K278" s="1"/>
       <c r="L278" s="1"/>
@@ -7701,7 +7696,7 @@
     </row>
     <row r="280" spans="1:12">
       <c r="A280" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -7712,10 +7707,10 @@
     </row>
     <row r="281" spans="1:12">
       <c r="A281" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
@@ -7725,34 +7720,34 @@
     </row>
     <row r="282" spans="1:12">
       <c r="A282" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B282" s="1" t="s">
         <v>774</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>775</v>
       </c>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="F282" s="1" t="s">
         <v>776</v>
-      </c>
-      <c r="F282" s="1" t="s">
-        <v>777</v>
       </c>
       <c r="K282" s="1"/>
       <c r="L282" s="1"/>
     </row>
     <row r="283" spans="1:12">
       <c r="A283" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B283" s="1" t="s">
         <v>778</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>779</v>
       </c>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
       <c r="F283" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="K283" s="1"/>
       <c r="L283" s="1"/>
@@ -7764,14 +7759,14 @@
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
       <c r="F284" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K284" s="1"/>
       <c r="L284" s="1"/>
     </row>
     <row r="285" spans="1:12">
       <c r="A285" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -7782,10 +7777,10 @@
     </row>
     <row r="286" spans="1:12">
       <c r="A286" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B286" s="12" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
@@ -7795,10 +7790,10 @@
     </row>
     <row r="287" spans="1:12">
       <c r="A287" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B287" s="12" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
@@ -7808,10 +7803,10 @@
     </row>
     <row r="288" spans="1:12">
       <c r="A288" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B288" s="12" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
@@ -7829,8 +7824,8 @@
       <c r="L289" s="1"/>
     </row>
     <row r="290" spans="1:12">
-      <c r="A290" s="36" t="s">
-        <v>786</v>
+      <c r="A290" s="34" t="s">
+        <v>785</v>
       </c>
       <c r="B290" s="29"/>
       <c r="C290" s="29"/>
@@ -7869,7 +7864,7 @@
     </row>
     <row r="293" spans="1:12">
       <c r="A293" s="28" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B293" s="29"/>
       <c r="C293" s="29"/>
@@ -7894,7 +7889,7 @@
     </row>
     <row r="295" spans="1:12">
       <c r="A295" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -7905,7 +7900,7 @@
     </row>
     <row r="296" spans="1:12">
       <c r="A296" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -7925,14 +7920,14 @@
     </row>
     <row r="298" spans="1:12">
       <c r="A298" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B298" s="1" t="s">
         <v>788</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>789</v>
       </c>
       <c r="C298" s="1"/>
       <c r="D298" s="22" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E298" s="1"/>
       <c r="K298" s="1"/>
@@ -7940,14 +7935,14 @@
     </row>
     <row r="299" spans="1:12">
       <c r="A299" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C299" s="1"/>
       <c r="D299" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E299" s="1"/>
       <c r="K299" s="1"/>
@@ -7955,10 +7950,10 @@
     </row>
     <row r="300" spans="1:12">
       <c r="A300" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C300" s="1"/>
       <c r="D300" s="1" t="str">
@@ -7972,7 +7967,7 @@
     <row r="301" spans="1:12">
       <c r="A301" s="1"/>
       <c r="B301" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
@@ -7982,7 +7977,7 @@
     </row>
     <row r="302" spans="1:12">
       <c r="A302" s="28" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B302" s="29"/>
       <c r="C302" s="29"/>
@@ -8007,7 +8002,7 @@
     </row>
     <row r="304" spans="1:12">
       <c r="A304" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -8062,10 +8057,10 @@
       <c r="A309" s="5"/>
       <c r="B309" s="1"/>
       <c r="C309" s="24" t="s">
+        <v>795</v>
+      </c>
+      <c r="D309" s="23" t="s">
         <v>796</v>
-      </c>
-      <c r="D309" s="23" t="s">
-        <v>797</v>
       </c>
       <c r="E309" s="1"/>
       <c r="K309" s="1"/>
@@ -8074,10 +8069,10 @@
     <row r="310" spans="1:12">
       <c r="A310" s="1"/>
       <c r="B310" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="C310" s="24" t="s">
         <v>798</v>
-      </c>
-      <c r="C310" s="24" t="s">
-        <v>799</v>
       </c>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
@@ -8087,11 +8082,11 @@
     <row r="311" spans="1:12">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
-      <c r="C311" s="34" t="s">
+      <c r="C311" s="30" t="s">
+        <v>799</v>
+      </c>
+      <c r="D311" s="1" t="s">
         <v>800</v>
-      </c>
-      <c r="D311" s="1" t="s">
-        <v>801</v>
       </c>
       <c r="E311" s="1"/>
       <c r="K311" s="1"/>
@@ -8100,9 +8095,9 @@
     <row r="312" spans="1:12">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
-      <c r="C312" s="35"/>
+      <c r="C312" s="31"/>
       <c r="D312" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E312" s="1"/>
       <c r="K312" s="1"/>
@@ -8111,9 +8106,9 @@
     <row r="313" spans="1:12">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
-      <c r="C313" s="35"/>
+      <c r="C313" s="31"/>
       <c r="D313" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E313" s="1"/>
       <c r="K313" s="1"/>
@@ -8123,7 +8118,7 @@
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="24" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
@@ -8133,10 +8128,10 @@
     <row r="315" spans="1:12">
       <c r="A315" s="1"/>
       <c r="B315" s="18" t="s">
+        <v>804</v>
+      </c>
+      <c r="C315" s="24" t="s">
         <v>805</v>
-      </c>
-      <c r="C315" s="24" t="s">
-        <v>806</v>
       </c>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
@@ -8154,7 +8149,7 @@
     </row>
     <row r="317" spans="1:12">
       <c r="A317" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -8165,14 +8160,14 @@
     </row>
     <row r="318" spans="1:12">
       <c r="A318" s="15" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C318" s="1"/>
       <c r="D318" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E318" s="1"/>
       <c r="K318" s="1"/>
@@ -8180,14 +8175,14 @@
     </row>
     <row r="319" spans="1:12">
       <c r="A319" s="15" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B319" s="20" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C319" s="1"/>
       <c r="D319" s="12" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E319" s="1"/>
       <c r="K319" s="1"/>
@@ -8195,14 +8190,14 @@
     </row>
     <row r="320" spans="1:12">
       <c r="A320" s="15" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C320" s="1"/>
       <c r="D320" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E320" s="1"/>
       <c r="K320" s="1"/>
@@ -8210,10 +8205,10 @@
     </row>
     <row r="321" spans="1:12">
       <c r="A321" s="15" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
@@ -8223,10 +8218,10 @@
     </row>
     <row r="322" spans="1:12">
       <c r="A322" s="15" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
@@ -8236,14 +8231,14 @@
     </row>
     <row r="323" spans="1:12">
       <c r="A323" s="15" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C323" s="1"/>
       <c r="D323" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E323" s="1"/>
       <c r="K323" s="1"/>
@@ -8251,14 +8246,14 @@
     </row>
     <row r="324" spans="1:12">
       <c r="A324" s="15" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C324" s="1"/>
       <c r="D324" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E324" s="1"/>
       <c r="K324" s="1"/>
@@ -8266,14 +8261,14 @@
     </row>
     <row r="325" spans="1:12">
       <c r="A325" s="15" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C325" s="1"/>
       <c r="D325" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E325" s="1"/>
       <c r="K325" s="1"/>
@@ -8290,7 +8285,7 @@
     </row>
     <row r="327" spans="1:12">
       <c r="A327" s="28" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B327" s="29"/>
       <c r="C327" s="29"/>
@@ -8315,7 +8310,7 @@
     </row>
     <row r="329" spans="1:12">
       <c r="A329" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -8326,10 +8321,10 @@
     </row>
     <row r="330" spans="1:12">
       <c r="A330" s="15" t="s">
+        <v>821</v>
+      </c>
+      <c r="B330" s="1" t="s">
         <v>822</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>823</v>
       </c>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
@@ -8348,7 +8343,7 @@
     </row>
     <row r="332" spans="1:12">
       <c r="A332" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -8359,7 +8354,7 @@
     </row>
     <row r="333" spans="1:12">
       <c r="A333" s="17" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -8370,10 +8365,10 @@
     </row>
     <row r="334" spans="1:12">
       <c r="A334" s="15" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
@@ -8383,10 +8378,10 @@
     </row>
     <row r="335" spans="1:12">
       <c r="A335" s="15" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
@@ -8396,10 +8391,10 @@
     </row>
     <row r="336" spans="1:12">
       <c r="A336" s="15" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
@@ -8409,10 +8404,10 @@
     </row>
     <row r="337" spans="1:12">
       <c r="A337" s="15" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
@@ -8422,14 +8417,14 @@
     </row>
     <row r="338" spans="1:12">
       <c r="A338" s="15" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C338" s="1"/>
       <c r="D338" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E338" s="1"/>
       <c r="K338" s="1"/>
@@ -8437,14 +8432,14 @@
     </row>
     <row r="339" spans="1:12">
       <c r="A339" s="25" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B339" s="25" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C339" s="1"/>
       <c r="D339" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E339" s="1"/>
       <c r="K339" s="1"/>
@@ -8452,7 +8447,7 @@
     </row>
     <row r="340" spans="1:12">
       <c r="A340" s="15" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -8463,7 +8458,7 @@
     </row>
     <row r="341" spans="1:12">
       <c r="A341" s="15" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>69</v>
@@ -8485,7 +8480,7 @@
     </row>
     <row r="343" spans="1:12">
       <c r="A343" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -8496,14 +8491,14 @@
     </row>
     <row r="344" spans="1:12">
       <c r="A344" s="15" t="s">
+        <v>832</v>
+      </c>
+      <c r="B344" s="1" t="s">
         <v>833</v>
-      </c>
-      <c r="B344" s="1" t="s">
-        <v>834</v>
       </c>
       <c r="C344" s="1"/>
       <c r="D344" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E344" s="1"/>
       <c r="K344" s="1"/>
@@ -8520,12 +8515,12 @@
     </row>
     <row r="346" spans="1:12">
       <c r="A346" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
       <c r="D346" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E346" s="1"/>
       <c r="K346" s="1"/>
@@ -8533,99 +8528,99 @@
     </row>
     <row r="347" spans="1:12">
       <c r="A347" s="15" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C347" s="1"/>
       <c r="D347" s="15" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K347" s="1"/>
       <c r="L347" s="1"/>
     </row>
     <row r="348" spans="1:12">
       <c r="A348" s="15" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C348" s="1"/>
       <c r="D348" s="15" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E348" s="15" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="K348" s="1"/>
       <c r="L348" s="1"/>
     </row>
     <row r="349" spans="1:12">
       <c r="A349" s="15" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C349" s="1"/>
       <c r="D349" s="15" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="K349" s="1"/>
       <c r="L349" s="1"/>
     </row>
     <row r="350" spans="1:12">
       <c r="A350" s="15" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C350" s="1"/>
       <c r="D350" s="15" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E350" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K350" s="1"/>
       <c r="L350" s="1"/>
     </row>
     <row r="351" spans="1:12">
       <c r="A351" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="B351" s="1" t="s">
         <v>843</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>844</v>
       </c>
       <c r="C351" s="1"/>
       <c r="D351" s="15" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E351" s="15" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="K351" s="1"/>
       <c r="L351" s="1"/>
     </row>
     <row r="352" spans="1:12">
       <c r="A352" s="15" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C352" s="1"/>
       <c r="D352" s="15" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E352" s="15" t="s">
         <v>69</v>
@@ -8635,10 +8630,10 @@
     </row>
     <row r="353" spans="1:12">
       <c r="A353" s="15" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
@@ -8648,10 +8643,10 @@
     </row>
     <row r="354" spans="1:12">
       <c r="A354" s="15" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
@@ -8661,10 +8656,10 @@
     </row>
     <row r="355" spans="1:12">
       <c r="A355" s="15" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
@@ -8674,10 +8669,10 @@
     </row>
     <row r="356" spans="1:12">
       <c r="A356" s="15" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
@@ -8687,10 +8682,10 @@
     </row>
     <row r="357" spans="1:12">
       <c r="A357" s="15" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
@@ -8709,7 +8704,7 @@
     </row>
     <row r="359" spans="1:12">
       <c r="A359" s="28" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B359" s="29"/>
       <c r="C359" s="29"/>
@@ -8725,7 +8720,7 @@
     </row>
     <row r="360" spans="1:12">
       <c r="A360" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -8736,7 +8731,7 @@
     </row>
     <row r="361" spans="1:12">
       <c r="A361" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -8747,10 +8742,10 @@
     </row>
     <row r="362" spans="1:12">
       <c r="A362" s="15" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
@@ -8760,7 +8755,7 @@
     </row>
     <row r="363" spans="1:12">
       <c r="A363" s="15" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>69</v>
@@ -8773,10 +8768,10 @@
     </row>
     <row r="364" spans="1:12">
       <c r="A364" s="15" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
@@ -8786,10 +8781,10 @@
     </row>
     <row r="365" spans="1:12">
       <c r="A365" s="15" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
@@ -8799,14 +8794,14 @@
     </row>
     <row r="366" spans="1:12">
       <c r="A366" s="15" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C366" s="1"/>
       <c r="D366" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E366" s="1"/>
       <c r="K366" s="1"/>
@@ -8814,14 +8809,14 @@
     </row>
     <row r="367" spans="1:12">
       <c r="A367" s="15" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C367" s="1"/>
       <c r="D367" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E367" s="1"/>
       <c r="K367" s="1"/>
@@ -8829,10 +8824,10 @@
     </row>
     <row r="368" spans="1:12">
       <c r="A368" s="15" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
@@ -8851,14 +8846,14 @@
     </row>
     <row r="370" spans="1:12">
       <c r="A370" s="15" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C370" s="1"/>
       <c r="D370" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E370" s="1"/>
       <c r="K370" s="1"/>
@@ -8866,14 +8861,14 @@
     </row>
     <row r="371" spans="1:12">
       <c r="A371" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C371" s="1"/>
       <c r="D371" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E371" s="1"/>
       <c r="K371" s="1"/>
@@ -8881,10 +8876,10 @@
     </row>
     <row r="372" spans="1:12">
       <c r="A372" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
@@ -8903,7 +8898,7 @@
     </row>
     <row r="374" spans="1:12">
       <c r="A374" s="28" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B374" s="29"/>
       <c r="C374" s="29"/>
@@ -8928,14 +8923,14 @@
     </row>
     <row r="376" spans="1:12">
       <c r="A376" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C376" s="1"/>
       <c r="D376" s="5" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E376" s="1"/>
       <c r="K376" s="1"/>
@@ -8943,36 +8938,36 @@
     </row>
     <row r="377" spans="1:12">
       <c r="A377" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C377" s="1"/>
       <c r="D377" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="K377" s="1"/>
       <c r="L377" s="1"/>
     </row>
     <row r="378" spans="1:12">
       <c r="A378" s="15" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B378" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="C378" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="C378" s="1" t="s">
+      <c r="D378" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="E378" s="1" t="s">
         <v>871</v>
-      </c>
-      <c r="D378" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="E378" s="1" t="s">
-        <v>872</v>
       </c>
       <c r="K378" s="1"/>
       <c r="L378" s="1"/>
@@ -8982,42 +8977,42 @@
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
       <c r="D379" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E379" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="H379" s="1" t="s">
         <v>873</v>
-      </c>
-      <c r="H379" s="1" t="s">
-        <v>874</v>
       </c>
       <c r="K379" s="1"/>
       <c r="L379" s="1"/>
     </row>
     <row r="380" spans="1:12">
       <c r="A380" s="15" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B380" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="C380" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="C380" s="1" t="s">
+      <c r="D380" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="E380" s="1" t="s">
         <v>876</v>
-      </c>
-      <c r="D380" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="E380" s="1" t="s">
-        <v>877</v>
       </c>
       <c r="K380" s="1"/>
       <c r="L380" s="1"/>
     </row>
     <row r="381" spans="1:12">
       <c r="A381" s="15" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
@@ -9030,10 +9025,10 @@
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
       <c r="D382" s="15" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E382" s="15" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="K382" s="1"/>
       <c r="L382" s="1"/>
@@ -9043,13 +9038,13 @@
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
       <c r="D383" s="15" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E383" s="15" t="s">
+        <v>879</v>
+      </c>
+      <c r="G383" s="1" t="s">
         <v>880</v>
-      </c>
-      <c r="G383" s="1" t="s">
-        <v>881</v>
       </c>
       <c r="K383" s="1"/>
       <c r="L383" s="1"/>
@@ -9060,10 +9055,10 @@
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
       <c r="E384" s="15" t="s">
+        <v>881</v>
+      </c>
+      <c r="G384" s="1" t="s">
         <v>882</v>
-      </c>
-      <c r="G384" s="1" t="s">
-        <v>883</v>
       </c>
       <c r="K384" s="1"/>
       <c r="L384" s="1"/>
@@ -9088,7 +9083,7 @@
     </row>
     <row r="387" spans="1:12">
       <c r="A387" s="28" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B387" s="29"/>
       <c r="C387" s="29"/>
@@ -9113,10 +9108,10 @@
     </row>
     <row r="389" spans="1:12">
       <c r="A389" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="B389" s="1" t="s">
         <v>885</v>
-      </c>
-      <c r="B389" s="1" t="s">
-        <v>886</v>
       </c>
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
@@ -9126,10 +9121,10 @@
     </row>
     <row r="390" spans="1:12">
       <c r="A390" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
@@ -9139,7 +9134,7 @@
     </row>
     <row r="391" spans="1:12">
       <c r="A391" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>58</v>
@@ -9152,10 +9147,10 @@
     </row>
     <row r="392" spans="1:12">
       <c r="A392" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
@@ -9174,7 +9169,7 @@
     </row>
     <row r="394" spans="1:12">
       <c r="A394" s="5" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -9185,7 +9180,7 @@
     </row>
     <row r="395" spans="1:12">
       <c r="A395" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -9196,7 +9191,7 @@
     </row>
     <row r="396" spans="1:12">
       <c r="A396" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -9207,7 +9202,7 @@
     </row>
     <row r="397" spans="1:12">
       <c r="A397" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -9218,7 +9213,7 @@
     </row>
     <row r="398" spans="1:12">
       <c r="A398" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -9229,7 +9224,7 @@
     </row>
     <row r="399" spans="1:12">
       <c r="A399" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -9240,7 +9235,7 @@
     </row>
     <row r="400" spans="1:12">
       <c r="A400" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -9251,7 +9246,7 @@
     </row>
     <row r="401" spans="1:12">
       <c r="A401" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -14653,16 +14648,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A302:J302"/>
-    <mergeCell ref="C311:C313"/>
-    <mergeCell ref="A169:J169"/>
-    <mergeCell ref="A116:J116"/>
-    <mergeCell ref="A89:J89"/>
-    <mergeCell ref="A99:J99"/>
-    <mergeCell ref="A293:J293"/>
-    <mergeCell ref="A260:J260"/>
-    <mergeCell ref="A290:J291"/>
-    <mergeCell ref="A246:J246"/>
     <mergeCell ref="A327:J327"/>
     <mergeCell ref="A387:J387"/>
     <mergeCell ref="A374:J374"/>
@@ -14679,6 +14664,16 @@
     <mergeCell ref="A225:J225"/>
     <mergeCell ref="A141:J141"/>
     <mergeCell ref="A106:J106"/>
+    <mergeCell ref="A302:J302"/>
+    <mergeCell ref="C311:C313"/>
+    <mergeCell ref="A169:J169"/>
+    <mergeCell ref="A116:J116"/>
+    <mergeCell ref="A89:J89"/>
+    <mergeCell ref="A99:J99"/>
+    <mergeCell ref="A293:J293"/>
+    <mergeCell ref="A260:J260"/>
+    <mergeCell ref="A290:J291"/>
+    <mergeCell ref="A246:J246"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15088,10 +15083,10 @@
         <v>31</v>
       </c>
       <c r="Z38" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA38" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="10:27" ht="30">
@@ -15099,7 +15094,7 @@
         <v>32</v>
       </c>
       <c r="Z39" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA39" s="11">
         <v>20</v>
@@ -15110,7 +15105,7 @@
         <v>33</v>
       </c>
       <c r="Z40" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA40" s="11">
         <v>21</v>
@@ -15121,7 +15116,7 @@
         <v>34</v>
       </c>
       <c r="Z41" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AA41" s="11">
         <v>22</v>
@@ -15132,7 +15127,7 @@
         <v>35</v>
       </c>
       <c r="Z42" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AA42" s="11">
         <v>23</v>
@@ -15143,7 +15138,7 @@
         <v>36</v>
       </c>
       <c r="Z43" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AA43" s="11">
         <v>24</v>
@@ -15154,7 +15149,7 @@
         <v>37</v>
       </c>
       <c r="Z44" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA44" s="11">
         <v>25</v>
@@ -15165,7 +15160,7 @@
         <v>38</v>
       </c>
       <c r="Z45" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA45" s="11">
         <v>26</v>
@@ -15176,7 +15171,7 @@
         <v>39</v>
       </c>
       <c r="Z46" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AA46" s="11">
         <v>27</v>
@@ -15187,7 +15182,7 @@
         <v>40</v>
       </c>
       <c r="Z47" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AA47" s="11">
         <v>28</v>
@@ -15198,7 +15193,7 @@
         <v>41</v>
       </c>
       <c r="Z48" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AA48" s="11">
         <v>29</v>
@@ -15209,10 +15204,10 @@
         <v>42</v>
       </c>
       <c r="Z49" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA49" s="11" t="s">
         <v>164</v>
-      </c>
-      <c r="AA49" s="11" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="50" spans="25:27" ht="30">
@@ -15220,10 +15215,10 @@
         <v>43</v>
       </c>
       <c r="Z50" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA50" s="11" t="s">
         <v>166</v>
-      </c>
-      <c r="AA50" s="11" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="51" spans="25:27" ht="30">
@@ -15231,10 +15226,10 @@
         <v>44</v>
       </c>
       <c r="Z51" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA51" s="11" t="s">
         <v>168</v>
-      </c>
-      <c r="AA51" s="11" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="52" spans="25:27" ht="30">
@@ -15242,10 +15237,10 @@
         <v>45</v>
       </c>
       <c r="Z52" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA52" s="11" t="s">
         <v>170</v>
-      </c>
-      <c r="AA52" s="11" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="53" spans="25:27" ht="30" customHeight="1">
@@ -15253,10 +15248,10 @@
         <v>46</v>
       </c>
       <c r="Z53" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA53" s="11" t="s">
         <v>172</v>
-      </c>
-      <c r="AA53" s="11" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="54" spans="25:27" ht="30">
@@ -15264,10 +15259,10 @@
         <v>47</v>
       </c>
       <c r="Z54" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA54" s="11" t="s">
         <v>174</v>
-      </c>
-      <c r="AA54" s="11" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="55" spans="25:27" ht="30">
@@ -15275,7 +15270,7 @@
         <v>48</v>
       </c>
       <c r="Z55" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AA55" s="11">
         <v>30</v>
@@ -15286,7 +15281,7 @@
         <v>49</v>
       </c>
       <c r="Z56" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AA56" s="11">
         <v>31</v>
@@ -15297,7 +15292,7 @@
         <v>50</v>
       </c>
       <c r="Z57" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AA57" s="11">
         <v>32</v>
@@ -15308,7 +15303,7 @@
         <v>51</v>
       </c>
       <c r="Z58" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AA58" s="11">
         <v>33</v>
@@ -15319,7 +15314,7 @@
         <v>52</v>
       </c>
       <c r="Z59" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA59" s="11">
         <v>34</v>
@@ -15330,7 +15325,7 @@
         <v>53</v>
       </c>
       <c r="Z60" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AA60" s="11">
         <v>35</v>
@@ -15341,7 +15336,7 @@
         <v>54</v>
       </c>
       <c r="Z61" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AA61" s="11">
         <v>36</v>
@@ -15352,7 +15347,7 @@
         <v>55</v>
       </c>
       <c r="Z62" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA62" s="11">
         <v>37</v>
@@ -15363,7 +15358,7 @@
         <v>56</v>
       </c>
       <c r="Z63" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA63" s="11">
         <v>38</v>
@@ -15374,7 +15369,7 @@
         <v>57</v>
       </c>
       <c r="Z64" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AA64" s="11">
         <v>39</v>
@@ -15385,10 +15380,10 @@
         <v>58</v>
       </c>
       <c r="Z65" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA65" s="11" t="s">
         <v>192</v>
-      </c>
-      <c r="AA65" s="11" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="66" spans="25:27" ht="30">
@@ -15396,10 +15391,10 @@
         <v>59</v>
       </c>
       <c r="Z66" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA66" s="11" t="s">
         <v>194</v>
-      </c>
-      <c r="AA66" s="11" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="67" spans="25:27" ht="30">
@@ -15407,10 +15402,10 @@
         <v>60</v>
       </c>
       <c r="Z67" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA67" s="11" t="s">
         <v>198</v>
-      </c>
-      <c r="AA67" s="11" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="68" spans="25:27" ht="30">
@@ -15418,10 +15413,10 @@
         <v>61</v>
       </c>
       <c r="Z68" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AA68" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" spans="25:27" ht="30">
@@ -15429,10 +15424,10 @@
         <v>62</v>
       </c>
       <c r="Z69" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA69" s="11" t="s">
         <v>203</v>
-      </c>
-      <c r="AA69" s="11" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="70" spans="25:27" ht="30">
@@ -15440,10 +15435,10 @@
         <v>63</v>
       </c>
       <c r="Z70" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA70" s="11" t="s">
         <v>205</v>
-      </c>
-      <c r="AA70" s="11" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="71" spans="25:27" ht="30">
@@ -15451,7 +15446,7 @@
         <v>64</v>
       </c>
       <c r="Z71" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AA71" s="11">
         <v>40</v>
@@ -15462,7 +15457,7 @@
         <v>65</v>
       </c>
       <c r="Z72" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AA72" s="11">
         <v>41</v>
@@ -15473,7 +15468,7 @@
         <v>66</v>
       </c>
       <c r="Z73" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AA73" s="11">
         <v>42</v>
@@ -15484,7 +15479,7 @@
         <v>67</v>
       </c>
       <c r="Z74" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AA74" s="11">
         <v>43</v>
@@ -15495,7 +15490,7 @@
         <v>68</v>
       </c>
       <c r="Z75" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AA75" s="11">
         <v>44</v>
@@ -15506,7 +15501,7 @@
         <v>69</v>
       </c>
       <c r="Z76" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AA76" s="11">
         <v>45</v>
@@ -15517,7 +15512,7 @@
         <v>70</v>
       </c>
       <c r="Z77" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AA77" s="11">
         <v>46</v>
@@ -15528,7 +15523,7 @@
         <v>71</v>
       </c>
       <c r="Z78" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AA78" s="11">
         <v>47</v>
@@ -15539,7 +15534,7 @@
         <v>72</v>
       </c>
       <c r="Z79" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AA79" s="11">
         <v>48</v>
@@ -15550,7 +15545,7 @@
         <v>73</v>
       </c>
       <c r="Z80" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AA80" s="11">
         <v>49</v>
@@ -15561,10 +15556,10 @@
         <v>74</v>
       </c>
       <c r="Z81" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA81" s="11" t="s">
         <v>220</v>
-      </c>
-      <c r="AA81" s="11" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="82" spans="25:27" ht="30">
@@ -15572,10 +15567,10 @@
         <v>75</v>
       </c>
       <c r="Z82" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA82" s="11" t="s">
         <v>222</v>
-      </c>
-      <c r="AA82" s="11" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="83" spans="25:27" ht="30">
@@ -15583,10 +15578,10 @@
         <v>76</v>
       </c>
       <c r="Z83" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA83" s="11" t="s">
         <v>226</v>
-      </c>
-      <c r="AA83" s="11" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="84" spans="25:27" ht="30">
@@ -15594,10 +15589,10 @@
         <v>77</v>
       </c>
       <c r="Z84" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA84" s="11" t="s">
         <v>228</v>
-      </c>
-      <c r="AA84" s="11" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="85" spans="25:27" ht="30">
@@ -15605,10 +15600,10 @@
         <v>78</v>
       </c>
       <c r="Z85" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA85" s="11" t="s">
         <v>230</v>
-      </c>
-      <c r="AA85" s="11" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="86" spans="25:27" ht="30">
@@ -15616,10 +15611,10 @@
         <v>79</v>
       </c>
       <c r="Z86" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA86" s="11" t="s">
         <v>232</v>
-      </c>
-      <c r="AA86" s="11" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="87" spans="25:27" ht="30">
@@ -15627,7 +15622,7 @@
         <v>80</v>
       </c>
       <c r="Z87" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AA87" s="11">
         <v>50</v>
@@ -15638,7 +15633,7 @@
         <v>81</v>
       </c>
       <c r="Z88" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AA88" s="11">
         <v>51</v>
@@ -15649,7 +15644,7 @@
         <v>82</v>
       </c>
       <c r="Z89" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA89" s="11">
         <v>52</v>
@@ -15660,7 +15655,7 @@
         <v>83</v>
       </c>
       <c r="Z90" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA90" s="11">
         <v>53</v>
@@ -15671,7 +15666,7 @@
         <v>84</v>
       </c>
       <c r="Z91" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AA91" s="11">
         <v>54</v>
@@ -15682,7 +15677,7 @@
         <v>85</v>
       </c>
       <c r="Z92" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AA92" s="11">
         <v>55</v>
@@ -15693,7 +15688,7 @@
         <v>86</v>
       </c>
       <c r="Z93" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AA93" s="11">
         <v>56</v>
@@ -15704,7 +15699,7 @@
         <v>87</v>
       </c>
       <c r="Z94" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AA94" s="11">
         <v>57</v>
@@ -15715,7 +15710,7 @@
         <v>88</v>
       </c>
       <c r="Z95" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AA95" s="11">
         <v>58</v>
@@ -15726,7 +15721,7 @@
         <v>89</v>
       </c>
       <c r="Z96" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AA96" s="11">
         <v>59</v>
@@ -15737,10 +15732,10 @@
         <v>90</v>
       </c>
       <c r="Z97" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA97" s="11" t="s">
         <v>257</v>
-      </c>
-      <c r="AA97" s="11" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="98" spans="25:27" ht="30">
@@ -15748,10 +15743,10 @@
         <v>91</v>
       </c>
       <c r="Z98" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA98" s="11" t="s">
         <v>259</v>
-      </c>
-      <c r="AA98" s="11" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="99" spans="25:27" ht="30">
@@ -15759,10 +15754,10 @@
         <v>92</v>
       </c>
       <c r="Z99" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="AA99" s="11" t="s">
         <v>261</v>
-      </c>
-      <c r="AA99" s="11" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="100" spans="25:27" ht="30">
@@ -15770,10 +15765,10 @@
         <v>93</v>
       </c>
       <c r="Z100" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="AA100" s="11" t="s">
         <v>263</v>
-      </c>
-      <c r="AA100" s="11" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="101" spans="25:27" ht="30">
@@ -15781,10 +15776,10 @@
         <v>94</v>
       </c>
       <c r="Z101" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA101" s="11" t="s">
         <v>265</v>
-      </c>
-      <c r="AA101" s="11" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="102" spans="25:27" ht="30">
@@ -15792,10 +15787,10 @@
         <v>95</v>
       </c>
       <c r="Z102" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA102" s="11" t="s">
         <v>267</v>
-      </c>
-      <c r="AA102" s="11" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="103" spans="25:27" ht="30">
@@ -15803,7 +15798,7 @@
         <v>96</v>
       </c>
       <c r="Z103" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AA103" s="11">
         <v>60</v>
@@ -15814,7 +15809,7 @@
         <v>97</v>
       </c>
       <c r="Z104" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AA104" s="11">
         <v>61</v>
@@ -15825,7 +15820,7 @@
         <v>98</v>
       </c>
       <c r="Z105" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AA105" s="11">
         <v>62</v>
@@ -15836,7 +15831,7 @@
         <v>99</v>
       </c>
       <c r="Z106" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AA106" s="11">
         <v>63</v>
@@ -15847,7 +15842,7 @@
         <v>100</v>
       </c>
       <c r="Z107" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AA107" s="11">
         <v>64</v>
@@ -15858,7 +15853,7 @@
         <v>101</v>
       </c>
       <c r="Z108" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA108" s="11">
         <v>65</v>
@@ -15869,7 +15864,7 @@
         <v>102</v>
       </c>
       <c r="Z109" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AA109" s="11">
         <v>66</v>
@@ -15880,7 +15875,7 @@
         <v>103</v>
       </c>
       <c r="Z110" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AA110" s="11">
         <v>67</v>
@@ -15891,7 +15886,7 @@
         <v>104</v>
       </c>
       <c r="Z111" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AA111" s="11">
         <v>68</v>
@@ -15902,7 +15897,7 @@
         <v>105</v>
       </c>
       <c r="Z112" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA112" s="11">
         <v>69</v>
@@ -15913,10 +15908,10 @@
         <v>106</v>
       </c>
       <c r="Z113" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="AA113" s="11" t="s">
         <v>286</v>
-      </c>
-      <c r="AA113" s="11" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="114" spans="25:27" ht="30">
@@ -15924,10 +15919,10 @@
         <v>107</v>
       </c>
       <c r="Z114" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AA114" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="115" spans="25:27" ht="30">
@@ -15935,10 +15930,10 @@
         <v>108</v>
       </c>
       <c r="Z115" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="AA115" s="11" t="s">
         <v>294</v>
-      </c>
-      <c r="AA115" s="11" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="116" spans="25:27" ht="30">
@@ -15946,10 +15941,10 @@
         <v>109</v>
       </c>
       <c r="Z116" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="AA116" s="11" t="s">
         <v>297</v>
-      </c>
-      <c r="AA116" s="11" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="117" spans="25:27" ht="30">
@@ -15957,10 +15952,10 @@
         <v>110</v>
       </c>
       <c r="Z117" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="AA117" s="11" t="s">
         <v>299</v>
-      </c>
-      <c r="AA117" s="11" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="118" spans="25:27" ht="30">
@@ -15968,10 +15963,10 @@
         <v>111</v>
       </c>
       <c r="Z118" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA118" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="AA118" s="11" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="119" spans="25:27" ht="30">
@@ -15979,7 +15974,7 @@
         <v>112</v>
       </c>
       <c r="Z119" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AA119" s="11">
         <v>70</v>
@@ -15990,7 +15985,7 @@
         <v>113</v>
       </c>
       <c r="Z120" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AA120" s="11">
         <v>71</v>
@@ -16001,7 +15996,7 @@
         <v>114</v>
       </c>
       <c r="Z121" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AA121" s="11">
         <v>72</v>
@@ -16012,7 +16007,7 @@
         <v>115</v>
       </c>
       <c r="Z122" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AA122" s="11">
         <v>73</v>
@@ -16023,7 +16018,7 @@
         <v>116</v>
       </c>
       <c r="Z123" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AA123" s="11">
         <v>74</v>
@@ -16034,7 +16029,7 @@
         <v>117</v>
       </c>
       <c r="Z124" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AA124" s="11">
         <v>75</v>
@@ -16045,7 +16040,7 @@
         <v>118</v>
       </c>
       <c r="Z125" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AA125" s="11">
         <v>76</v>
@@ -16056,7 +16051,7 @@
         <v>119</v>
       </c>
       <c r="Z126" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AA126" s="11">
         <v>77</v>
@@ -16067,7 +16062,7 @@
         <v>120</v>
       </c>
       <c r="Z127" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AA127" s="11">
         <v>78</v>
@@ -16078,7 +16073,7 @@
         <v>121</v>
       </c>
       <c r="Z128" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AA128" s="11">
         <v>79</v>
@@ -16089,10 +16084,10 @@
         <v>122</v>
       </c>
       <c r="Z129" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA129" s="11" t="s">
         <v>317</v>
-      </c>
-      <c r="AA129" s="11" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="130" spans="25:27" ht="30">
@@ -16100,10 +16095,10 @@
         <v>123</v>
       </c>
       <c r="Z130" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="AA130" s="11" t="s">
         <v>320</v>
-      </c>
-      <c r="AA130" s="11" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="131" spans="25:27" ht="30">
@@ -16111,10 +16106,10 @@
         <v>124</v>
       </c>
       <c r="Z131" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AA131" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="132" spans="25:27" ht="30">
@@ -16122,10 +16117,10 @@
         <v>125</v>
       </c>
       <c r="Z132" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AA132" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="133" spans="25:27" ht="30">
@@ -16133,10 +16128,10 @@
         <v>126</v>
       </c>
       <c r="Z133" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="AA133" s="11" t="s">
         <v>329</v>
-      </c>
-      <c r="AA133" s="11" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="134" spans="25:27" ht="30">
@@ -16144,10 +16139,10 @@
         <v>127</v>
       </c>
       <c r="Z134" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA134" s="11" t="s">
         <v>332</v>
-      </c>
-      <c r="AA134" s="11" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="135" spans="25:27" ht="30">
@@ -16155,7 +16150,7 @@
         <v>128</v>
       </c>
       <c r="Z135" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AA135" s="11">
         <v>80</v>
@@ -16166,7 +16161,7 @@
         <v>129</v>
       </c>
       <c r="Z136" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AA136" s="11">
         <v>81</v>
@@ -16177,7 +16172,7 @@
         <v>130</v>
       </c>
       <c r="Z137" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AA137" s="11">
         <v>82</v>
@@ -16188,7 +16183,7 @@
         <v>131</v>
       </c>
       <c r="Z138" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AA138" s="11">
         <v>83</v>
@@ -16199,7 +16194,7 @@
         <v>132</v>
       </c>
       <c r="Z139" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AA139" s="11">
         <v>84</v>
@@ -16210,7 +16205,7 @@
         <v>133</v>
       </c>
       <c r="Z140" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AA140" s="11">
         <v>85</v>
@@ -16221,7 +16216,7 @@
         <v>134</v>
       </c>
       <c r="Z141" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AA141" s="11">
         <v>86</v>
@@ -16232,7 +16227,7 @@
         <v>135</v>
       </c>
       <c r="Z142" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AA142" s="11">
         <v>87</v>
@@ -16243,7 +16238,7 @@
         <v>136</v>
       </c>
       <c r="Z143" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AA143" s="11">
         <v>88</v>
@@ -16254,7 +16249,7 @@
         <v>137</v>
       </c>
       <c r="Z144" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AA144" s="11">
         <v>89</v>
@@ -16265,10 +16260,10 @@
         <v>138</v>
       </c>
       <c r="Z145" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="AA145" s="11" t="s">
         <v>358</v>
-      </c>
-      <c r="AA145" s="11" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="146" spans="25:27" ht="30">
@@ -16276,10 +16271,10 @@
         <v>139</v>
       </c>
       <c r="Z146" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AA146" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="147" spans="25:27" ht="30">
@@ -16287,10 +16282,10 @@
         <v>140</v>
       </c>
       <c r="Z147" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="AA147" s="11" t="s">
         <v>364</v>
-      </c>
-      <c r="AA147" s="11" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="148" spans="25:27" ht="30">
@@ -16298,10 +16293,10 @@
         <v>141</v>
       </c>
       <c r="Z148" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AA148" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="149" spans="25:27" ht="30">
@@ -16309,10 +16304,10 @@
         <v>142</v>
       </c>
       <c r="Z149" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA149" s="11" t="s">
         <v>371</v>
-      </c>
-      <c r="AA149" s="11" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="150" spans="25:27" ht="30">
@@ -16320,10 +16315,10 @@
         <v>143</v>
       </c>
       <c r="Z150" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA150" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="AA150" s="11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="151" spans="25:27" ht="30">
@@ -16331,7 +16326,7 @@
         <v>144</v>
       </c>
       <c r="Z151" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AA151" s="11">
         <v>90</v>
@@ -16342,7 +16337,7 @@
         <v>145</v>
       </c>
       <c r="Z152" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AA152" s="11">
         <v>91</v>
@@ -16353,7 +16348,7 @@
         <v>146</v>
       </c>
       <c r="Z153" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AA153" s="11">
         <v>92</v>
@@ -16364,7 +16359,7 @@
         <v>147</v>
       </c>
       <c r="Z154" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AA154" s="11">
         <v>93</v>
@@ -16375,7 +16370,7 @@
         <v>148</v>
       </c>
       <c r="Z155" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AA155" s="11">
         <v>94</v>
@@ -16386,7 +16381,7 @@
         <v>149</v>
       </c>
       <c r="Z156" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AA156" s="11">
         <v>95</v>
@@ -16397,7 +16392,7 @@
         <v>150</v>
       </c>
       <c r="Z157" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AA157" s="11">
         <v>96</v>
@@ -16408,7 +16403,7 @@
         <v>151</v>
       </c>
       <c r="Z158" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AA158" s="11">
         <v>97</v>
@@ -16419,7 +16414,7 @@
         <v>152</v>
       </c>
       <c r="Z159" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AA159" s="11">
         <v>98</v>
@@ -16430,7 +16425,7 @@
         <v>153</v>
       </c>
       <c r="Z160" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AA160" s="11">
         <v>99</v>
@@ -16441,10 +16436,10 @@
         <v>154</v>
       </c>
       <c r="Z161" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="AA161" s="11" t="s">
         <v>389</v>
-      </c>
-      <c r="AA161" s="11" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="162" spans="25:27" ht="30">
@@ -16452,10 +16447,10 @@
         <v>155</v>
       </c>
       <c r="Z162" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA162" s="11" t="s">
         <v>391</v>
-      </c>
-      <c r="AA162" s="11" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="163" spans="25:27" ht="30">
@@ -16463,10 +16458,10 @@
         <v>156</v>
       </c>
       <c r="Z163" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="AA163" s="11" t="s">
         <v>393</v>
-      </c>
-      <c r="AA163" s="11" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="164" spans="25:27" ht="30">
@@ -16474,10 +16469,10 @@
         <v>157</v>
       </c>
       <c r="Z164" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="AA164" s="11" t="s">
         <v>395</v>
-      </c>
-      <c r="AA164" s="11" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="165" spans="25:27" ht="30">
@@ -16485,10 +16480,10 @@
         <v>158</v>
       </c>
       <c r="Z165" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="AA165" s="11" t="s">
         <v>397</v>
-      </c>
-      <c r="AA165" s="11" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="166" spans="25:27" ht="30">
@@ -16496,10 +16491,10 @@
         <v>159</v>
       </c>
       <c r="Z166" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="AA166" s="11" t="s">
         <v>399</v>
-      </c>
-      <c r="AA166" s="11" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="167" spans="25:27" ht="30">
@@ -16507,10 +16502,10 @@
         <v>160</v>
       </c>
       <c r="Z167" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="AA167" s="11" t="s">
         <v>401</v>
-      </c>
-      <c r="AA167" s="11" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="168" spans="25:27" ht="30">
@@ -16518,10 +16513,10 @@
         <v>161</v>
       </c>
       <c r="Z168" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="AA168" s="11" t="s">
         <v>403</v>
-      </c>
-      <c r="AA168" s="11" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="169" spans="25:27" ht="30">
@@ -16529,10 +16524,10 @@
         <v>162</v>
       </c>
       <c r="Z169" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AA169" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="170" spans="25:27" ht="30">
@@ -16540,10 +16535,10 @@
         <v>163</v>
       </c>
       <c r="Z170" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="AA170" s="11" t="s">
         <v>410</v>
-      </c>
-      <c r="AA170" s="11" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="171" spans="25:27" ht="30">
@@ -16551,10 +16546,10 @@
         <v>164</v>
       </c>
       <c r="Z171" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="AA171" s="11" t="s">
         <v>413</v>
-      </c>
-      <c r="AA171" s="11" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="172" spans="25:27" ht="30">
@@ -16562,10 +16557,10 @@
         <v>165</v>
       </c>
       <c r="Z172" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA172" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="173" spans="25:27" ht="30">
@@ -16573,10 +16568,10 @@
         <v>166</v>
       </c>
       <c r="Z173" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="AA173" s="11" t="s">
         <v>421</v>
-      </c>
-      <c r="AA173" s="11" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="174" spans="25:27" ht="30">
@@ -16584,10 +16579,10 @@
         <v>167</v>
       </c>
       <c r="Z174" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AA174" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="175" spans="25:27" ht="30">
@@ -16595,10 +16590,10 @@
         <v>168</v>
       </c>
       <c r="Z175" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="AA175" s="11" t="s">
         <v>427</v>
-      </c>
-      <c r="AA175" s="11" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="176" spans="25:27" ht="30">
@@ -16606,10 +16601,10 @@
         <v>169</v>
       </c>
       <c r="Z176" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="AA176" s="11" t="s">
         <v>431</v>
-      </c>
-      <c r="AA176" s="11" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="177" spans="25:27" ht="30">
@@ -16617,10 +16612,10 @@
         <v>170</v>
       </c>
       <c r="Z177" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="AA177" s="11" t="s">
         <v>434</v>
-      </c>
-      <c r="AA177" s="11" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="178" spans="25:27" ht="30">
@@ -16628,10 +16623,10 @@
         <v>171</v>
       </c>
       <c r="Z178" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="AA178" s="11" t="s">
         <v>436</v>
-      </c>
-      <c r="AA178" s="11" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="179" spans="25:27" ht="30">
@@ -16639,10 +16634,10 @@
         <v>172</v>
       </c>
       <c r="Z179" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="AA179" s="11" t="s">
         <v>438</v>
-      </c>
-      <c r="AA179" s="11" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="180" spans="25:27" ht="30">
@@ -16650,10 +16645,10 @@
         <v>173</v>
       </c>
       <c r="Z180" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="AA180" s="11" t="s">
         <v>440</v>
-      </c>
-      <c r="AA180" s="11" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="181" spans="25:27" ht="30">
@@ -16661,10 +16656,10 @@
         <v>174</v>
       </c>
       <c r="Z181" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA181" s="11" t="s">
         <v>442</v>
-      </c>
-      <c r="AA181" s="11" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="182" spans="25:27" ht="30">
@@ -16672,10 +16667,10 @@
         <v>175</v>
       </c>
       <c r="Z182" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="AA182" s="11" t="s">
         <v>444</v>
-      </c>
-      <c r="AA182" s="11" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="183" spans="25:27" ht="30">
@@ -16683,10 +16678,10 @@
         <v>176</v>
       </c>
       <c r="Z183" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="AA183" s="11" t="s">
         <v>446</v>
-      </c>
-      <c r="AA183" s="11" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="184" spans="25:27" ht="30">
@@ -16694,10 +16689,10 @@
         <v>177</v>
       </c>
       <c r="Z184" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AA184" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="185" spans="25:27" ht="30">
@@ -16705,10 +16700,10 @@
         <v>178</v>
       </c>
       <c r="Z185" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="AA185" s="11" t="s">
         <v>451</v>
-      </c>
-      <c r="AA185" s="11" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="186" spans="25:27" ht="30">
@@ -16716,10 +16711,10 @@
         <v>179</v>
       </c>
       <c r="Z186" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AA186" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="187" spans="25:27" ht="30">
@@ -16727,10 +16722,10 @@
         <v>180</v>
       </c>
       <c r="Z187" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="AA187" s="11" t="s">
         <v>457</v>
-      </c>
-      <c r="AA187" s="11" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="188" spans="25:27" ht="30">
@@ -16738,10 +16733,10 @@
         <v>181</v>
       </c>
       <c r="Z188" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="AA188" s="11" t="s">
         <v>459</v>
-      </c>
-      <c r="AA188" s="11" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="189" spans="25:27" ht="30">
@@ -16749,10 +16744,10 @@
         <v>182</v>
       </c>
       <c r="Z189" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AA189" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="190" spans="25:27" ht="30">
@@ -16760,10 +16755,10 @@
         <v>183</v>
       </c>
       <c r="Z190" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="AA190" s="11" t="s">
         <v>466</v>
-      </c>
-      <c r="AA190" s="11" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="191" spans="25:27" ht="30">
@@ -16771,10 +16766,10 @@
         <v>184</v>
       </c>
       <c r="Z191" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AA191" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="192" spans="25:27" ht="30">
@@ -16782,10 +16777,10 @@
         <v>185</v>
       </c>
       <c r="Z192" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="AA192" s="11" t="s">
         <v>472</v>
-      </c>
-      <c r="AA192" s="11" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="193" spans="25:27" ht="30">
@@ -16793,10 +16788,10 @@
         <v>186</v>
       </c>
       <c r="Z193" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="AA193" s="11" t="s">
         <v>475</v>
-      </c>
-      <c r="AA193" s="11" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="194" spans="25:27" ht="30">
@@ -16804,10 +16799,10 @@
         <v>187</v>
       </c>
       <c r="Z194" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="AA194" s="11" t="s">
         <v>478</v>
-      </c>
-      <c r="AA194" s="11" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="195" spans="25:27" ht="30">
@@ -16815,10 +16810,10 @@
         <v>188</v>
       </c>
       <c r="Z195" s="11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AA195" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="196" spans="25:27" ht="30">
@@ -16826,10 +16821,10 @@
         <v>189</v>
       </c>
       <c r="Z196" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="AA196" s="11" t="s">
         <v>483</v>
-      </c>
-      <c r="AA196" s="11" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="197" spans="25:27" ht="30">
@@ -16837,10 +16832,10 @@
         <v>190</v>
       </c>
       <c r="Z197" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AA197" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="198" spans="25:27" ht="30">
@@ -16848,10 +16843,10 @@
         <v>191</v>
       </c>
       <c r="Z198" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AA198" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="199" spans="25:27" ht="30">
@@ -16859,10 +16854,10 @@
         <v>192</v>
       </c>
       <c r="Z199" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AA199" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="200" spans="25:27" ht="30">
@@ -16870,10 +16865,10 @@
         <v>193</v>
       </c>
       <c r="Z200" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="AA200" s="11" t="s">
         <v>494</v>
-      </c>
-      <c r="AA200" s="11" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="201" spans="25:27" ht="30">
@@ -16881,10 +16876,10 @@
         <v>194</v>
       </c>
       <c r="Z201" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="AA201" s="11" t="s">
         <v>496</v>
-      </c>
-      <c r="AA201" s="11" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="202" spans="25:27" ht="30">
@@ -16892,10 +16887,10 @@
         <v>195</v>
       </c>
       <c r="Z202" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="AA202" s="11" t="s">
         <v>498</v>
-      </c>
-      <c r="AA202" s="11" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="203" spans="25:27" ht="30">
@@ -16903,10 +16898,10 @@
         <v>196</v>
       </c>
       <c r="Z203" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="AA203" s="11" t="s">
         <v>500</v>
-      </c>
-      <c r="AA203" s="11" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="204" spans="25:27" ht="30">
@@ -16914,10 +16909,10 @@
         <v>197</v>
       </c>
       <c r="Z204" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AA204" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="205" spans="25:27" ht="30">
@@ -16925,10 +16920,10 @@
         <v>198</v>
       </c>
       <c r="Z205" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="AA205" s="11" t="s">
         <v>506</v>
-      </c>
-      <c r="AA205" s="11" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="206" spans="25:27" ht="30">
@@ -16936,10 +16931,10 @@
         <v>199</v>
       </c>
       <c r="Z206" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AA206" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="207" spans="25:27" ht="30">
@@ -16947,10 +16942,10 @@
         <v>200</v>
       </c>
       <c r="Z207" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="AA207" s="11" t="s">
         <v>512</v>
-      </c>
-      <c r="AA207" s="11" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="208" spans="25:27" ht="30">
@@ -16958,10 +16953,10 @@
         <v>201</v>
       </c>
       <c r="Z208" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AA208" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="209" spans="25:27" ht="30">
@@ -16969,10 +16964,10 @@
         <v>202</v>
       </c>
       <c r="Z209" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AA209" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="210" spans="25:27" ht="30">
@@ -16980,10 +16975,10 @@
         <v>203</v>
       </c>
       <c r="Z210" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AA210" s="11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="211" spans="25:27" ht="30">
@@ -16991,10 +16986,10 @@
         <v>204</v>
       </c>
       <c r="Z211" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="AA211" s="11" t="s">
         <v>525</v>
-      </c>
-      <c r="AA211" s="11" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="212" spans="25:27" ht="30">
@@ -17002,10 +16997,10 @@
         <v>205</v>
       </c>
       <c r="Z212" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="AA212" s="11" t="s">
         <v>527</v>
-      </c>
-      <c r="AA212" s="11" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="213" spans="25:27" ht="30">
@@ -17013,10 +17008,10 @@
         <v>206</v>
       </c>
       <c r="Z213" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="AA213" s="11" t="s">
         <v>530</v>
-      </c>
-      <c r="AA213" s="11" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="214" spans="25:27" ht="30">
@@ -17024,10 +17019,10 @@
         <v>207</v>
       </c>
       <c r="Z214" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="AA214" s="11" t="s">
         <v>533</v>
-      </c>
-      <c r="AA214" s="11" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="215" spans="25:27" ht="30">
@@ -17035,10 +17030,10 @@
         <v>208</v>
       </c>
       <c r="Z215" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="AA215" s="11" t="s">
         <v>535</v>
-      </c>
-      <c r="AA215" s="11" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="216" spans="25:27" ht="30">
@@ -17046,10 +17041,10 @@
         <v>209</v>
       </c>
       <c r="Z216" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="AA216" s="11" t="s">
         <v>538</v>
-      </c>
-      <c r="AA216" s="11" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="217" spans="25:27" ht="30">
@@ -17057,10 +17052,10 @@
         <v>210</v>
       </c>
       <c r="Z217" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="AA217" s="11" t="s">
         <v>541</v>
-      </c>
-      <c r="AA217" s="11" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="218" spans="25:27" ht="30">
@@ -17068,10 +17063,10 @@
         <v>211</v>
       </c>
       <c r="Z218" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="AA218" s="11" t="s">
         <v>544</v>
-      </c>
-      <c r="AA218" s="11" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="219" spans="25:27" ht="30">
@@ -17079,10 +17074,10 @@
         <v>212</v>
       </c>
       <c r="Z219" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="AA219" s="11" t="s">
         <v>547</v>
-      </c>
-      <c r="AA219" s="11" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="220" spans="25:27" ht="30">
@@ -17090,10 +17085,10 @@
         <v>213</v>
       </c>
       <c r="Z220" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="AA220" s="11" t="s">
         <v>550</v>
-      </c>
-      <c r="AA220" s="11" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="221" spans="25:27" ht="30">
@@ -17101,10 +17096,10 @@
         <v>214</v>
       </c>
       <c r="Z221" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="AA221" s="11" t="s">
         <v>552</v>
-      </c>
-      <c r="AA221" s="11" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="222" spans="25:27" ht="30">
@@ -17112,10 +17107,10 @@
         <v>215</v>
       </c>
       <c r="Z222" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="AA222" s="11" t="s">
         <v>555</v>
-      </c>
-      <c r="AA222" s="11" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="223" spans="25:27" ht="30">
@@ -17123,10 +17118,10 @@
         <v>216</v>
       </c>
       <c r="Z223" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="AA223" s="11" t="s">
         <v>557</v>
-      </c>
-      <c r="AA223" s="11" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="224" spans="25:27" ht="30">
@@ -17134,10 +17129,10 @@
         <v>217</v>
       </c>
       <c r="Z224" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="AA224" s="11" t="s">
         <v>559</v>
-      </c>
-      <c r="AA224" s="11" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="225" spans="25:27" ht="30">
@@ -17145,10 +17140,10 @@
         <v>218</v>
       </c>
       <c r="Z225" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="AA225" s="11" t="s">
         <v>561</v>
-      </c>
-      <c r="AA225" s="11" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="226" spans="25:27" ht="30">
@@ -17156,10 +17151,10 @@
         <v>219</v>
       </c>
       <c r="Z226" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="AA226" s="11" t="s">
         <v>563</v>
-      </c>
-      <c r="AA226" s="11" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="227" spans="25:27" ht="30">
@@ -17167,10 +17162,10 @@
         <v>220</v>
       </c>
       <c r="Z227" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="AA227" s="11" t="s">
         <v>565</v>
-      </c>
-      <c r="AA227" s="11" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="228" spans="25:27" ht="30">
@@ -17178,10 +17173,10 @@
         <v>221</v>
       </c>
       <c r="Z228" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="AA228" s="11" t="s">
         <v>567</v>
-      </c>
-      <c r="AA228" s="11" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="229" spans="25:27" ht="30">
@@ -17189,10 +17184,10 @@
         <v>222</v>
       </c>
       <c r="Z229" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="AA229" s="11" t="s">
         <v>569</v>
-      </c>
-      <c r="AA229" s="11" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="230" spans="25:27" ht="30">
@@ -17200,10 +17195,10 @@
         <v>223</v>
       </c>
       <c r="Z230" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="AA230" s="11" t="s">
         <v>571</v>
-      </c>
-      <c r="AA230" s="11" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="231" spans="25:27" ht="30">
@@ -17211,10 +17206,10 @@
         <v>224</v>
       </c>
       <c r="Z231" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="AA231" s="11" t="s">
         <v>573</v>
-      </c>
-      <c r="AA231" s="11" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="232" spans="25:27" ht="30">
@@ -17222,10 +17217,10 @@
         <v>225</v>
       </c>
       <c r="Z232" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="AA232" s="11" t="s">
         <v>575</v>
-      </c>
-      <c r="AA232" s="11" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="233" spans="25:27" ht="30">
@@ -17233,10 +17228,10 @@
         <v>226</v>
       </c>
       <c r="Z233" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA233" s="11" t="s">
         <v>577</v>
-      </c>
-      <c r="AA233" s="11" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="234" spans="25:27" ht="30">
@@ -17244,10 +17239,10 @@
         <v>227</v>
       </c>
       <c r="Z234" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="AA234" s="11" t="s">
         <v>579</v>
-      </c>
-      <c r="AA234" s="11" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="235" spans="25:27" ht="30">
@@ -17255,10 +17250,10 @@
         <v>228</v>
       </c>
       <c r="Z235" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA235" s="11" t="s">
         <v>581</v>
-      </c>
-      <c r="AA235" s="11" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="236" spans="25:27" ht="30">
@@ -17266,10 +17261,10 @@
         <v>229</v>
       </c>
       <c r="Z236" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="AA236" s="11" t="s">
         <v>583</v>
-      </c>
-      <c r="AA236" s="11" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="237" spans="25:27" ht="30">
@@ -17277,10 +17272,10 @@
         <v>230</v>
       </c>
       <c r="Z237" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="AA237" s="11" t="s">
         <v>585</v>
-      </c>
-      <c r="AA237" s="11" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="238" spans="25:27" ht="30">
@@ -17288,10 +17283,10 @@
         <v>231</v>
       </c>
       <c r="Z238" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="AA238" s="11" t="s">
         <v>587</v>
-      </c>
-      <c r="AA238" s="11" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="239" spans="25:27" ht="30">
@@ -17299,10 +17294,10 @@
         <v>232</v>
       </c>
       <c r="Z239" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="AA239" s="11" t="s">
         <v>589</v>
-      </c>
-      <c r="AA239" s="11" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="240" spans="25:27" ht="30">
@@ -17310,10 +17305,10 @@
         <v>233</v>
       </c>
       <c r="Z240" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA240" s="11" t="s">
         <v>591</v>
-      </c>
-      <c r="AA240" s="11" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="241" spans="25:27" ht="30">
@@ -17321,10 +17316,10 @@
         <v>234</v>
       </c>
       <c r="Z241" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="AA241" s="11" t="s">
         <v>593</v>
-      </c>
-      <c r="AA241" s="11" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="242" spans="25:27" ht="30">
@@ -17332,10 +17327,10 @@
         <v>235</v>
       </c>
       <c r="Z242" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="AA242" s="11" t="s">
         <v>595</v>
-      </c>
-      <c r="AA242" s="11" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="243" spans="25:27" ht="30">
@@ -17343,10 +17338,10 @@
         <v>236</v>
       </c>
       <c r="Z243" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA243" s="11" t="s">
         <v>597</v>
-      </c>
-      <c r="AA243" s="11" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="244" spans="25:27" ht="30">
@@ -17354,10 +17349,10 @@
         <v>237</v>
       </c>
       <c r="Z244" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="AA244" s="11" t="s">
         <v>599</v>
-      </c>
-      <c r="AA244" s="11" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="245" spans="25:27" ht="30">
@@ -17365,10 +17360,10 @@
         <v>238</v>
       </c>
       <c r="Z245" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="AA245" s="11" t="s">
         <v>601</v>
-      </c>
-      <c r="AA245" s="11" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="246" spans="25:27" ht="30">
@@ -17376,10 +17371,10 @@
         <v>239</v>
       </c>
       <c r="Z246" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="AA246" s="11" t="s">
         <v>603</v>
-      </c>
-      <c r="AA246" s="11" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="247" spans="25:27" ht="30">
@@ -17387,10 +17382,10 @@
         <v>240</v>
       </c>
       <c r="Z247" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="AA247" s="11" t="s">
         <v>605</v>
-      </c>
-      <c r="AA247" s="11" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="248" spans="25:27" ht="30">
@@ -17398,10 +17393,10 @@
         <v>241</v>
       </c>
       <c r="Z248" s="11" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AA248" s="11" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="249" spans="25:27" ht="30">
@@ -17409,10 +17404,10 @@
         <v>242</v>
       </c>
       <c r="Z249" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="AA249" s="11" t="s">
         <v>610</v>
-      </c>
-      <c r="AA249" s="11" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="250" spans="25:27" ht="30">
@@ -17420,10 +17415,10 @@
         <v>243</v>
       </c>
       <c r="Z250" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="AA250" s="11" t="s">
         <v>612</v>
-      </c>
-      <c r="AA250" s="11" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="251" spans="25:27" ht="30">
@@ -17431,10 +17426,10 @@
         <v>244</v>
       </c>
       <c r="Z251" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="AA251" s="11" t="s">
         <v>614</v>
-      </c>
-      <c r="AA251" s="11" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="252" spans="25:27" ht="30">
@@ -17442,10 +17437,10 @@
         <v>245</v>
       </c>
       <c r="Z252" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="AA252" s="11" t="s">
         <v>616</v>
-      </c>
-      <c r="AA252" s="11" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="253" spans="25:27" ht="30">
@@ -17453,10 +17448,10 @@
         <v>246</v>
       </c>
       <c r="Z253" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="AA253" s="11" t="s">
         <v>618</v>
-      </c>
-      <c r="AA253" s="11" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="254" spans="25:27" ht="30">
@@ -17464,10 +17459,10 @@
         <v>247</v>
       </c>
       <c r="Z254" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="AA254" s="11" t="s">
         <v>621</v>
-      </c>
-      <c r="AA254" s="11" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="255" spans="25:27" ht="30">
@@ -17475,10 +17470,10 @@
         <v>248</v>
       </c>
       <c r="Z255" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="AA255" s="11" t="s">
         <v>623</v>
-      </c>
-      <c r="AA255" s="11" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="256" spans="25:27" ht="30">
@@ -17486,10 +17481,10 @@
         <v>249</v>
       </c>
       <c r="Z256" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA256" s="11" t="s">
         <v>625</v>
-      </c>
-      <c r="AA256" s="11" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="257" spans="25:27" ht="30">
@@ -17497,10 +17492,10 @@
         <v>250</v>
       </c>
       <c r="Z257" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="AA257" s="11" t="s">
         <v>627</v>
-      </c>
-      <c r="AA257" s="11" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="258" spans="25:27" ht="30">
@@ -17508,10 +17503,10 @@
         <v>251</v>
       </c>
       <c r="Z258" s="11" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AA258" s="11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="259" spans="25:27" ht="30">
@@ -17519,10 +17514,10 @@
         <v>252</v>
       </c>
       <c r="Z259" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="AA259" s="11" t="s">
         <v>634</v>
-      </c>
-      <c r="AA259" s="11" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="260" spans="25:27" ht="30">
@@ -17530,10 +17525,10 @@
         <v>253</v>
       </c>
       <c r="Z260" s="11" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AA260" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="261" spans="25:27" ht="30">
@@ -17541,10 +17536,10 @@
         <v>254</v>
       </c>
       <c r="Z261" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="AA261" s="11" t="s">
         <v>640</v>
-      </c>
-      <c r="AA261" s="11" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="262" spans="25:27" ht="30">
@@ -17552,10 +17547,10 @@
         <v>255</v>
       </c>
       <c r="Z262" s="11" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AA262" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="263" spans="25:27">
